--- a/sources/Moksha_data.xlsx
+++ b/sources/Moksha_data.xlsx
@@ -2288,7 +2288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2312,7 +2312,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2595,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2718,15 +2717,15 @@
       <c r="L2" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2853,15 +2852,15 @@
       <c r="L5" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>654</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -2900,15 +2899,15 @@
       <c r="L6" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>655</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2947,15 +2946,15 @@
       <c r="L7" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>656</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -2994,15 +2993,15 @@
       <c r="L8" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>657</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -3123,15 +3122,15 @@
       <c r="L11" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3215,15 +3214,15 @@
       <c r="L13" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>659</v>
-      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -3266,7 +3265,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3311,7 +3310,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3354,7 +3353,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3522,15 +3521,15 @@
       <c r="L20" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>660</v>
-      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3618,7 +3617,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3657,15 +3656,15 @@
       <c r="L23" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>661</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3710,7 +3709,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3966,15 +3965,15 @@
       <c r="L30" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>662</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4013,15 +4012,15 @@
       <c r="L31" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>663</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4191,15 +4190,15 @@
       <c r="L35" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>664</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4238,15 +4237,15 @@
       <c r="L36" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4328,15 +4327,15 @@
       <c r="L38" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>666</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4545,15 +4544,15 @@
       <c r="L43" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4674,15 +4673,15 @@
       <c r="L46" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>668</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4805,15 +4804,15 @@
       <c r="L49" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>669</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4938,15 +4937,15 @@
       <c r="L52" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -4981,15 +4980,15 @@
       <c r="L53" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>672</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -5161,15 +5160,15 @@
       <c r="L57" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5206,15 +5205,15 @@
       <c r="L58" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>674</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -5249,15 +5248,15 @@
       <c r="L59" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>675</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5296,15 +5295,15 @@
       <c r="L60" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>676</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5431,15 +5430,15 @@
       <c r="L63" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>677</v>
-      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -5521,15 +5520,15 @@
       <c r="L65" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5568,15 +5567,15 @@
       <c r="L66" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5654,15 +5653,15 @@
       <c r="L68" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>680</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5699,15 +5698,15 @@
       <c r="L69" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M69" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
@@ -5873,15 +5872,15 @@
       <c r="L73" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>682</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="5" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -5920,15 +5919,15 @@
       <c r="L74" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>683</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -6096,15 +6095,15 @@
       <c r="L78" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -6186,15 +6185,15 @@
       <c r="L80" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -6233,15 +6232,15 @@
       <c r="L81" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6280,15 +6279,15 @@
       <c r="L82" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -6323,15 +6322,15 @@
       <c r="L83" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6370,15 +6369,15 @@
       <c r="L84" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>689</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6417,15 +6416,15 @@
       <c r="L85" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>690</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6505,15 +6504,15 @@
       <c r="L87" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>682</v>
-      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6552,15 +6551,15 @@
       <c r="L88" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>691</v>
-      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -6599,15 +6598,15 @@
       <c r="L89" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6642,15 +6641,15 @@
       <c r="L90" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>693</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6863,15 +6862,15 @@
       <c r="L95" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>694</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -6996,15 +6995,15 @@
       <c r="L98" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -7129,15 +7128,15 @@
       <c r="L101" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7262,15 +7261,15 @@
       <c r="L104" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>682</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7309,15 +7308,15 @@
       <c r="L105" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="M105" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="5" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -7354,15 +7353,15 @@
       <c r="L106" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M106" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
+      <c r="S106" s="5" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
@@ -7534,7 +7533,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7571,15 +7570,15 @@
       <c r="L111" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M111" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7624,7 +7623,7 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7669,7 +7668,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5"/>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7704,15 +7703,15 @@
       <c r="L114" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>700</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7751,15 +7750,15 @@
       <c r="L115" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7802,7 +7801,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7847,7 +7846,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7886,15 +7885,15 @@
       <c r="L118" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8017,15 +8016,15 @@
       <c r="L121" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M121" s="5" t="s">
-        <v>703</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8060,15 +8059,15 @@
       <c r="L122" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>704</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -8107,15 +8106,15 @@
       <c r="L123" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8154,15 +8153,15 @@
       <c r="L124" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8199,15 +8198,15 @@
       <c r="L125" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>682</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8246,15 +8245,15 @@
       <c r="L126" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8332,15 +8331,15 @@
       <c r="L128" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8379,15 +8378,15 @@
       <c r="L129" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8422,15 +8421,15 @@
       <c r="L130" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>710</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">

--- a/sources/Moksha_data.xlsx
+++ b/sources/Moksha_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="733">
   <si>
     <t>language_no</t>
   </si>
@@ -1789,9 +1789,6 @@
   </si>
   <si>
     <t>šča-</t>
-  </si>
-  <si>
-    <t>NOMnoagr</t>
   </si>
   <si>
     <t>vər'gɛt'-</t>
@@ -2161,12 +2158,6 @@
     <t>GEN_NOM</t>
   </si>
   <si>
-    <t>NOM_IN_marxta</t>
-  </si>
-  <si>
-    <t>NOM_ABL_ezda</t>
-  </si>
-  <si>
     <t>NOM_lanks</t>
   </si>
   <si>
@@ -2179,24 +2170,12 @@
     <t>NOM_marxta</t>
   </si>
   <si>
-    <t>NOM_LAT_DAT</t>
-  </si>
-  <si>
-    <t>NOM_EL_ezda</t>
-  </si>
-  <si>
-    <t>NOM_ILL_DAT</t>
-  </si>
-  <si>
     <t>NOM_kolga</t>
   </si>
   <si>
     <t>NOM_lanksa</t>
   </si>
   <si>
-    <t>DAT_NOMnoagr</t>
-  </si>
-  <si>
     <t>DAT_NOM</t>
   </si>
   <si>
@@ -2219,6 +2198,30 @@
   </si>
   <si>
     <t>ILL/DAT</t>
+  </si>
+  <si>
+    <t>GEN~NOM</t>
+  </si>
+  <si>
+    <t>NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>DAT_NOM(NO.AGR)</t>
+  </si>
+  <si>
+    <t>NOM_ABL/ezda</t>
+  </si>
+  <si>
+    <t>NOM_EL/ezda</t>
+  </si>
+  <si>
+    <t>NOM_IN/marxta</t>
+  </si>
+  <si>
+    <t>NOM_LAT/DAT</t>
+  </si>
+  <si>
+    <t>NOM_ILL/DAT</t>
   </si>
 </sst>
 </file>
@@ -2594,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M131"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2715,7 +2718,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2724,7 +2727,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2756,13 +2759,13 @@
         <v>538</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2801,13 +2804,13 @@
         <v>538</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2843,9 +2846,11 @@
         <v>540</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>541</v>
       </c>
@@ -2859,7 +2864,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2897,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2906,7 +2911,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2944,7 +2949,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2953,7 +2958,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2991,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3000,7 +3005,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3029,9 +3034,11 @@
         <v>547</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>541</v>
       </c>
@@ -3072,9 +3079,11 @@
         <v>548</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>541</v>
       </c>
@@ -3117,10 +3126,14 @@
       <c r="I11" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L11" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -3129,7 +3142,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3167,7 +3180,7 @@
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3206,13 +3219,13 @@
         <v>538</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3221,7 +3234,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3250,9 +3263,11 @@
         <v>553</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>541</v>
       </c>
@@ -3296,13 +3311,13 @@
         <v>538</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3338,9 +3353,11 @@
         <v>555</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>541</v>
       </c>
@@ -3381,9 +3398,11 @@
         <v>556</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>541</v>
       </c>
@@ -3433,7 +3452,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3469,9 +3488,11 @@
         <v>558</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>541</v>
       </c>
@@ -3512,9 +3533,11 @@
         <v>542</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>541</v>
       </c>
@@ -3528,7 +3551,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3557,9 +3580,11 @@
         <v>559</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>541</v>
       </c>
@@ -3603,13 +3628,13 @@
         <v>538</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3648,13 +3673,13 @@
         <v>538</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3663,7 +3688,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3701,7 +3726,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3746,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3791,7 +3816,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3827,9 +3852,11 @@
         <v>566</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>541</v>
       </c>
@@ -3870,9 +3897,11 @@
         <v>567</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>541</v>
       </c>
@@ -3913,9 +3942,11 @@
         <v>568</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K29" s="5" t="s">
         <v>541</v>
       </c>
@@ -3956,9 +3987,11 @@
         <v>569</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K30" s="5" t="s">
         <v>541</v>
       </c>
@@ -3972,7 +4005,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4004,13 +4037,13 @@
         <v>538</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -4019,7 +4052,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4048,9 +4081,11 @@
         <v>571</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>541</v>
       </c>
@@ -4100,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4136,9 +4171,11 @@
         <v>573</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>541</v>
       </c>
@@ -4182,13 +4219,13 @@
         <v>538</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4197,7 +4234,7 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4229,13 +4266,13 @@
         <v>538</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4244,7 +4281,7 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4273,9 +4310,11 @@
         <v>576</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>541</v>
       </c>
@@ -4325,7 +4364,7 @@
         <v>9</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4334,7 +4373,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4372,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4408,9 +4447,11 @@
         <v>580</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>541</v>
       </c>
@@ -4451,9 +4492,11 @@
         <v>581</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>541</v>
       </c>
@@ -4494,9 +4537,11 @@
         <v>582</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>541</v>
       </c>
@@ -4539,10 +4584,14 @@
       <c r="I43" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L43" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -4551,7 +4600,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4580,9 +4629,11 @@
         <v>583</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>541</v>
       </c>
@@ -4623,9 +4674,11 @@
         <v>584</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>541</v>
       </c>
@@ -4668,10 +4721,14 @@
       <c r="I46" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L46" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4680,7 +4737,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4709,9 +4766,11 @@
         <v>585</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>541</v>
       </c>
@@ -4755,13 +4814,13 @@
         <v>538</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4799,10 +4858,14 @@
       <c r="I49" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L49" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -4811,7 +4874,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4840,9 +4903,11 @@
         <v>587</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>541</v>
       </c>
@@ -4883,9 +4948,11 @@
         <v>588</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>541</v>
       </c>
@@ -4929,13 +4996,13 @@
         <v>546</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>589</v>
+        <v>726</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -4944,7 +5011,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4975,10 +5042,14 @@
       <c r="I53" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L53" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -4987,7 +5058,7 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5013,7 +5084,7 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>538</v>
@@ -5025,7 +5096,7 @@
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5058,19 +5129,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5103,12 +5174,14 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>541</v>
       </c>
@@ -5146,7 +5219,7 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>546</v>
@@ -5158,7 +5231,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5167,7 +5240,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5193,12 +5266,14 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>541</v>
       </c>
@@ -5212,7 +5287,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5238,15 +5313,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="J59" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L59" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5255,7 +5334,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5281,7 +5360,7 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>546</v>
@@ -5293,7 +5372,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5302,7 +5381,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5328,12 +5407,14 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>541</v>
       </c>
@@ -5371,7 +5452,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>537</v>
@@ -5383,7 +5464,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5416,7 +5497,7 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>538</v>
@@ -5428,7 +5509,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5437,7 +5518,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5463,12 +5544,14 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>541</v>
       </c>
@@ -5506,19 +5589,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5527,7 +5610,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5553,19 +5636,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -5574,7 +5657,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5600,12 +5683,14 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>541</v>
       </c>
@@ -5648,10 +5733,14 @@
       <c r="I68" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L68" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -5660,7 +5749,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5686,12 +5775,14 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K69" s="5" t="s">
         <v>541</v>
       </c>
@@ -5705,7 +5796,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5734,9 +5825,11 @@
         <v>574</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>541</v>
       </c>
@@ -5774,12 +5867,14 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>541</v>
       </c>
@@ -5817,12 +5912,14 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>541</v>
       </c>
@@ -5860,12 +5957,14 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>541</v>
       </c>
@@ -5879,7 +5978,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5917,7 +6016,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5926,7 +6025,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5952,12 +6051,14 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>541</v>
       </c>
@@ -5995,12 +6096,14 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>541</v>
       </c>
@@ -6038,12 +6141,14 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>541</v>
       </c>
@@ -6081,7 +6186,7 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>538</v>
@@ -6093,7 +6198,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6102,7 +6207,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6128,12 +6233,14 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>541</v>
       </c>
@@ -6171,19 +6278,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6192,7 +6299,7 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6218,19 +6325,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -6239,7 +6346,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6265,19 +6372,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6286,7 +6393,7 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6317,10 +6424,14 @@
       <c r="I83" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L83" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6329,7 +6440,7 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6355,19 +6466,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -6376,7 +6487,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6402,7 +6513,7 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>538</v>
@@ -6414,7 +6525,7 @@
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6423,7 +6534,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6449,12 +6560,14 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>541</v>
       </c>
@@ -6492,12 +6605,14 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>541</v>
       </c>
@@ -6511,7 +6626,7 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6537,7 +6652,7 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>538</v>
@@ -6549,7 +6664,7 @@
         <v>9</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6558,7 +6673,7 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6584,7 +6699,7 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>538</v>
@@ -6596,7 +6711,7 @@
         <v>9</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -6605,7 +6720,7 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6636,10 +6751,14 @@
       <c r="I90" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="J90" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L90" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -6648,7 +6767,7 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6674,19 +6793,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -6719,12 +6838,14 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>541</v>
       </c>
@@ -6762,12 +6883,14 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>541</v>
       </c>
@@ -6805,12 +6928,14 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>541</v>
       </c>
@@ -6848,7 +6973,7 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>538</v>
@@ -6860,7 +6985,7 @@
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6869,7 +6994,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6895,7 +7020,7 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>538</v>
@@ -6907,7 +7032,7 @@
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6940,12 +7065,14 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>541</v>
       </c>
@@ -6983,12 +7110,14 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K98" s="5" t="s">
         <v>541</v>
       </c>
@@ -7002,7 +7131,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7028,7 +7157,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>538</v>
@@ -7040,7 +7169,7 @@
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7073,7 +7202,7 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>538</v>
@@ -7085,7 +7214,7 @@
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7123,10 +7252,14 @@
       <c r="I101" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="J101" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L101" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7135,7 +7268,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7161,7 +7294,7 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>538</v>
@@ -7173,7 +7306,7 @@
         <v>9</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7206,12 +7339,14 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>541</v>
       </c>
@@ -7249,12 +7384,14 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>541</v>
       </c>
@@ -7268,7 +7405,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7294,19 +7431,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7315,7 +7452,7 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7341,12 +7478,14 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>541</v>
       </c>
@@ -7360,7 +7499,7 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7386,12 +7525,14 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>541</v>
       </c>
@@ -7429,12 +7570,14 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>541</v>
       </c>
@@ -7472,12 +7615,14 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>541</v>
       </c>
@@ -7515,12 +7660,14 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>541</v>
       </c>
@@ -7558,12 +7705,14 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>541</v>
       </c>
@@ -7577,7 +7726,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7603,19 +7752,19 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -7648,19 +7797,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J113" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7698,10 +7847,14 @@
       <c r="I114" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="J114" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L114" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7710,7 +7863,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7736,7 +7889,7 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>538</v>
@@ -7748,7 +7901,7 @@
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -7757,7 +7910,7 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7783,12 +7936,14 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K116" s="5" t="s">
         <v>541</v>
       </c>
@@ -7826,7 +7981,7 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>538</v>
@@ -7838,7 +7993,7 @@
         <v>9</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -7871,7 +8026,7 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>538</v>
@@ -7883,7 +8038,7 @@
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7892,7 +8047,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7918,19 +8073,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -7966,9 +8121,11 @@
         <v>585</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>541</v>
       </c>
@@ -8011,10 +8168,14 @@
       <c r="I121" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L121" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -8023,7 +8184,7 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8054,10 +8215,14 @@
       <c r="I122" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+      <c r="J122" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L122" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8066,7 +8231,7 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8092,7 +8257,7 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>538</v>
@@ -8104,7 +8269,7 @@
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8113,7 +8278,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8139,7 +8304,7 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>538</v>
@@ -8151,7 +8316,7 @@
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8160,7 +8325,7 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8186,12 +8351,14 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>541</v>
       </c>
@@ -8205,7 +8372,7 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8231,19 +8398,19 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>538</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -8252,7 +8419,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8278,12 +8445,14 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>541</v>
       </c>
@@ -8326,10 +8495,14 @@
       <c r="I128" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L128" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8338,7 +8511,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8364,7 +8537,7 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>538</v>
@@ -8376,7 +8549,7 @@
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8385,7 +8558,7 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8416,10 +8589,14 @@
       <c r="I130" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="L130" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8428,7 +8605,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8454,12 +8631,14 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J131" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="K131" s="5" t="s">
         <v>541</v>
       </c>
